--- a/project/TBM/data/单机头结构工程师发起导入模板.xlsx
+++ b/project/TBM/data/单机头结构工程师发起导入模板.xlsx
@@ -59,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +73,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,90 +89,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,31 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,103 +232,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,79 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,26 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,8 +509,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,134 +558,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/project/TBM/data/单机头结构工程师发起导入模板.xlsx
+++ b/project/TBM/data/单机头结构工程师发起导入模板.xlsx
@@ -59,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +73,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,16 +81,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,8 +147,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,61 +172,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,30 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +232,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,37 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,133 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,17 +452,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +487,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,32 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,134 +558,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/project/TBM/data/单机头结构工程师发起导入模板.xlsx
+++ b/project/TBM/data/单机头结构工程师发起导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="X656-基础BOM" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>试产</t>
   </si>
   <si>
-    <t>单机头</t>
+    <t>单机头_Infinix_X655_H6210_B1_咬鹃绿_PK_32+3</t>
   </si>
   <si>
     <t>电池_Infinix_BL_51BX_5100mAh_ATL_IN_BIS</t>
@@ -60,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,92 +80,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,36 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -216,6 +163,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -232,25 +232,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,133 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +441,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,30 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,24 +530,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,146 +546,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
